--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vegfc-Flt4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vegfc-Flt4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Vegfc</t>
+  </si>
+  <si>
+    <t>Flt4</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Vegfc</t>
-  </si>
-  <si>
-    <t>Flt4</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.314218500000001</v>
+        <v>4.087702500000001</v>
       </c>
       <c r="H2">
-        <v>12.628437</v>
+        <v>8.175405000000001</v>
       </c>
       <c r="I2">
-        <v>0.4670554707680782</v>
+        <v>0.5135259811487827</v>
       </c>
       <c r="J2">
-        <v>0.3859564807867226</v>
+        <v>0.4289149707570554</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.4951535</v>
+        <v>22.5115375</v>
       </c>
       <c r="N2">
-        <v>28.990307</v>
+        <v>45.023075</v>
       </c>
       <c r="O2">
-        <v>0.5379962725672185</v>
+        <v>0.9902215301099084</v>
       </c>
       <c r="P2">
-        <v>0.4376956899116953</v>
+        <v>0.9889845149485278</v>
       </c>
       <c r="Q2">
-        <v>91.52556639003977</v>
+        <v>92.02046811759377</v>
       </c>
       <c r="R2">
-        <v>366.1022655601591</v>
+        <v>368.0818724703751</v>
       </c>
       <c r="S2">
-        <v>0.2512741023553535</v>
+        <v>0.5085044828043396</v>
       </c>
       <c r="T2">
-        <v>0.1689314881338345</v>
+        <v>0.4241902643083285</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,14 +587,14 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
         <v>2</v>
       </c>
@@ -605,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.314218500000001</v>
+        <v>4.087702500000001</v>
       </c>
       <c r="H3">
-        <v>12.628437</v>
+        <v>8.175405000000001</v>
       </c>
       <c r="I3">
-        <v>0.4670554707680782</v>
+        <v>0.5135259811487827</v>
       </c>
       <c r="J3">
-        <v>0.3859564807867226</v>
+        <v>0.4289149707570554</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,28 +620,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.02932</v>
+        <v>0.01510933333333333</v>
       </c>
       <c r="N3">
-        <v>0.08796</v>
+        <v>0.045328</v>
       </c>
       <c r="O3">
-        <v>0.001088229297583557</v>
+        <v>0.0006646186282155973</v>
       </c>
       <c r="P3">
-        <v>0.001328020185665254</v>
+        <v>0.0009956825493058141</v>
       </c>
       <c r="Q3">
-        <v>0.18513288642</v>
+        <v>0.06176245964000001</v>
       </c>
       <c r="R3">
-        <v>1.11079731852</v>
+        <v>0.37057475784</v>
       </c>
       <c r="S3">
-        <v>0.0005082634468865035</v>
+        <v>0.0003412989331441726</v>
       </c>
       <c r="T3">
-        <v>0.0005125579972730913</v>
+        <v>0.0004270631515188137</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.314218500000001</v>
+        <v>4.087702500000001</v>
       </c>
       <c r="H4">
-        <v>12.628437</v>
+        <v>8.175405000000001</v>
       </c>
       <c r="I4">
-        <v>0.4670554707680782</v>
+        <v>0.5135259811487827</v>
       </c>
       <c r="J4">
-        <v>0.3859564807867226</v>
+        <v>0.4289149707570554</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.099467</v>
+        <v>0.1654315</v>
       </c>
       <c r="N4">
-        <v>0.198934</v>
+        <v>0.330863</v>
       </c>
       <c r="O4">
-        <v>0.003691777064895761</v>
+        <v>0.007276883378506569</v>
       </c>
       <c r="P4">
-        <v>0.00300350577097694</v>
+        <v>0.007267792872197529</v>
       </c>
       <c r="Q4">
-        <v>0.6280563715395001</v>
+        <v>0.6762347561287502</v>
       </c>
       <c r="R4">
-        <v>2.512225486158</v>
+        <v>2.704939024515001</v>
       </c>
       <c r="S4">
-        <v>0.001724264675015684</v>
+        <v>0.003736868676652854</v>
       </c>
       <c r="T4">
-        <v>0.001159222517388872</v>
+        <v>0.003117265167246939</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,108 +726,108 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.314218500000001</v>
+        <v>4.087702500000001</v>
       </c>
       <c r="H5">
-        <v>12.628437</v>
+        <v>8.175405000000001</v>
       </c>
       <c r="I5">
-        <v>0.4670554707680782</v>
+        <v>0.5135259811487827</v>
       </c>
       <c r="J5">
-        <v>0.3859564807867226</v>
+        <v>0.4289149707570554</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>12.17014233333333</v>
+        <v>0.04176133333333334</v>
       </c>
       <c r="N5">
-        <v>36.510427</v>
+        <v>0.125284</v>
       </c>
       <c r="O5">
-        <v>0.4517020955967002</v>
+        <v>0.001836967883369284</v>
       </c>
       <c r="P5">
-        <v>0.551234470705522</v>
+        <v>0.002752009629968885</v>
       </c>
       <c r="Q5">
-        <v>76.84493786876651</v>
+        <v>0.17070790667</v>
       </c>
       <c r="R5">
-        <v>461.0696272125991</v>
+        <v>1.02424744002</v>
       </c>
       <c r="S5">
-        <v>0.2109699349058443</v>
+        <v>0.0009433307346460141</v>
       </c>
       <c r="T5">
-        <v>0.212752516401835</v>
+        <v>0.001180378129961239</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.314218500000001</v>
+        <v>3.096071</v>
       </c>
       <c r="H6">
-        <v>12.628437</v>
+        <v>9.288212999999999</v>
       </c>
       <c r="I6">
-        <v>0.4670554707680782</v>
+        <v>0.3889502472308815</v>
       </c>
       <c r="J6">
-        <v>0.3859564807867226</v>
+        <v>0.4872974008358364</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1487683333333333</v>
+        <v>22.5115375</v>
       </c>
       <c r="N6">
-        <v>0.446305</v>
+        <v>45.023075</v>
       </c>
       <c r="O6">
-        <v>0.005521625473601973</v>
+        <v>0.9902215301099084</v>
       </c>
       <c r="P6">
-        <v>0.006738313426140646</v>
+        <v>0.9889845149485278</v>
       </c>
       <c r="Q6">
-        <v>0.9393557625475</v>
+        <v>69.6973184191625</v>
       </c>
       <c r="R6">
-        <v>5.636134575285</v>
+        <v>418.1839105149749</v>
       </c>
       <c r="S6">
-        <v>0.002578905384978182</v>
+        <v>0.3851469089495906</v>
       </c>
       <c r="T6">
-        <v>0.002600695736391167</v>
+        <v>0.481929583601308</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +856,40 @@
         <v>9.288212999999999</v>
       </c>
       <c r="I7">
-        <v>0.2290128063253425</v>
+        <v>0.3889502472308815</v>
       </c>
       <c r="J7">
-        <v>0.2838709178560645</v>
+        <v>0.4872974008358364</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>14.4951535</v>
+        <v>0.01510933333333333</v>
       </c>
       <c r="N7">
-        <v>28.990307</v>
+        <v>0.045328</v>
       </c>
       <c r="O7">
-        <v>0.5379962725672185</v>
+        <v>0.0006646186282155973</v>
       </c>
       <c r="P7">
-        <v>0.4376956899116953</v>
+        <v>0.0009956825493058141</v>
       </c>
       <c r="Q7">
-        <v>44.8780243918985</v>
+        <v>0.04677956876266667</v>
       </c>
       <c r="R7">
-        <v>269.268146351391</v>
+        <v>0.421016118864</v>
       </c>
       <c r="S7">
-        <v>0.1232080361731926</v>
+        <v>0.0002585035797587059</v>
       </c>
       <c r="T7">
-        <v>0.1242490772368763</v>
+        <v>0.0004851935183343227</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -921,40 +918,40 @@
         <v>9.288212999999999</v>
       </c>
       <c r="I8">
-        <v>0.2290128063253425</v>
+        <v>0.3889502472308815</v>
       </c>
       <c r="J8">
-        <v>0.2838709178560645</v>
+        <v>0.4872974008358364</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.02932</v>
+        <v>0.1654315</v>
       </c>
       <c r="N8">
-        <v>0.08796</v>
+        <v>0.330863</v>
       </c>
       <c r="O8">
-        <v>0.001088229297583557</v>
+        <v>0.007276883378506569</v>
       </c>
       <c r="P8">
-        <v>0.001328020185665254</v>
+        <v>0.007267792872197529</v>
       </c>
       <c r="Q8">
-        <v>0.09077680171999999</v>
+        <v>0.5121876696365</v>
       </c>
       <c r="R8">
-        <v>0.8169912154799999</v>
+        <v>3.073126017819</v>
       </c>
       <c r="S8">
-        <v>0.0002492184453650667</v>
+        <v>0.002830345589140422</v>
       </c>
       <c r="T8">
-        <v>0.0003769863090361769</v>
+        <v>0.003541576576435074</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -983,164 +980,164 @@
         <v>9.288212999999999</v>
       </c>
       <c r="I9">
-        <v>0.2290128063253425</v>
+        <v>0.3889502472308815</v>
       </c>
       <c r="J9">
-        <v>0.2838709178560645</v>
+        <v>0.4872974008358364</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.099467</v>
+        <v>0.04176133333333334</v>
       </c>
       <c r="N9">
-        <v>0.198934</v>
+        <v>0.125284</v>
       </c>
       <c r="O9">
-        <v>0.003691777064895761</v>
+        <v>0.001836967883369284</v>
       </c>
       <c r="P9">
-        <v>0.00300350577097694</v>
+        <v>0.002752009629968885</v>
       </c>
       <c r="Q9">
-        <v>0.307956894157</v>
+        <v>0.1292960530546667</v>
       </c>
       <c r="R9">
-        <v>1.847741364942</v>
+        <v>1.163664477492</v>
       </c>
       <c r="S9">
-        <v>0.0008454642259593142</v>
+        <v>0.000714489112391672</v>
       </c>
       <c r="T9">
-        <v>0.0008526079399932107</v>
+        <v>0.00134104713975903</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.096071</v>
+        <v>0.73184</v>
       </c>
       <c r="H10">
-        <v>9.288212999999999</v>
+        <v>1.46368</v>
       </c>
       <c r="I10">
-        <v>0.2290128063253425</v>
+        <v>0.09193889575964129</v>
       </c>
       <c r="J10">
-        <v>0.2838709178560645</v>
+        <v>0.0767906011258998</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.17014233333333</v>
+        <v>22.5115375</v>
       </c>
       <c r="N10">
-        <v>36.510427</v>
+        <v>45.023075</v>
       </c>
       <c r="O10">
-        <v>0.4517020955967002</v>
+        <v>0.9902215301099084</v>
       </c>
       <c r="P10">
-        <v>0.551234470705522</v>
+        <v>0.9889845149485278</v>
       </c>
       <c r="Q10">
-        <v>37.67962474410566</v>
+        <v>16.474843604</v>
       </c>
       <c r="R10">
-        <v>339.116622696951</v>
+        <v>65.899374416</v>
       </c>
       <c r="S10">
-        <v>0.1034455645356384</v>
+        <v>0.09103987403572737</v>
       </c>
       <c r="T10">
-        <v>0.1564794351530784</v>
+        <v>0.07594471540710389</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.096071</v>
+        <v>0.73184</v>
       </c>
       <c r="H11">
-        <v>9.288212999999999</v>
+        <v>1.46368</v>
       </c>
       <c r="I11">
-        <v>0.2290128063253425</v>
+        <v>0.09193889575964129</v>
       </c>
       <c r="J11">
-        <v>0.2838709178560645</v>
+        <v>0.0767906011258998</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.1487683333333333</v>
+        <v>0.01510933333333333</v>
       </c>
       <c r="N11">
-        <v>0.446305</v>
+        <v>0.045328</v>
       </c>
       <c r="O11">
-        <v>0.005521625473601973</v>
+        <v>0.0006646186282155973</v>
       </c>
       <c r="P11">
-        <v>0.006738313426140646</v>
+        <v>0.0009956825493058141</v>
       </c>
       <c r="Q11">
-        <v>0.4605973225516666</v>
+        <v>0.01105761450666667</v>
       </c>
       <c r="R11">
-        <v>4.145375902964999</v>
+        <v>0.06634568704</v>
       </c>
       <c r="S11">
-        <v>0.001264522945187086</v>
+        <v>6.11043027794296E-05</v>
       </c>
       <c r="T11">
-        <v>0.001912811217080388</v>
+        <v>7.645906149176183E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.02195966666666667</v>
+        <v>0.73184</v>
       </c>
       <c r="H12">
-        <v>0.06587899999999999</v>
+        <v>1.46368</v>
       </c>
       <c r="I12">
-        <v>0.001624331253806005</v>
+        <v>0.09193889575964129</v>
       </c>
       <c r="J12">
-        <v>0.002013426285275722</v>
+        <v>0.0767906011258998</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.4951535</v>
+        <v>0.1654315</v>
       </c>
       <c r="N12">
-        <v>28.990307</v>
+        <v>0.330863</v>
       </c>
       <c r="O12">
-        <v>0.5379962725672185</v>
+        <v>0.007276883378506569</v>
       </c>
       <c r="P12">
-        <v>0.4376956899116953</v>
+        <v>0.007267792872197529</v>
       </c>
       <c r="Q12">
-        <v>0.3183087391421667</v>
+        <v>0.12106938896</v>
       </c>
       <c r="R12">
-        <v>1.909852434853</v>
+        <v>0.48427755584</v>
       </c>
       <c r="S12">
-        <v>0.0008738841599620674</v>
+        <v>0.0006690286223915819</v>
       </c>
       <c r="T12">
-        <v>0.0008812680070200992</v>
+        <v>0.0005580981835145781</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.02195966666666667</v>
+        <v>0.73184</v>
       </c>
       <c r="H13">
-        <v>0.06587899999999999</v>
+        <v>1.46368</v>
       </c>
       <c r="I13">
-        <v>0.001624331253806005</v>
+        <v>0.09193889575964129</v>
       </c>
       <c r="J13">
-        <v>0.002013426285275722</v>
+        <v>0.0767906011258998</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,42 +1240,42 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.02932</v>
+        <v>0.04176133333333334</v>
       </c>
       <c r="N13">
-        <v>0.08796</v>
+        <v>0.125284</v>
       </c>
       <c r="O13">
-        <v>0.001088229297583557</v>
+        <v>0.001836967883369284</v>
       </c>
       <c r="P13">
-        <v>0.001328020185665254</v>
+        <v>0.002752009629968885</v>
       </c>
       <c r="Q13">
-        <v>0.0006438574266666666</v>
+        <v>0.03056261418666667</v>
       </c>
       <c r="R13">
-        <v>0.005794716839999999</v>
+        <v>0.18337568512</v>
       </c>
       <c r="S13">
-        <v>1.767644859372328E-06</v>
+        <v>0.0001688887987428975</v>
       </c>
       <c r="T13">
-        <v>2.673870749195167E-06</v>
+        <v>0.0002113284737895758</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1287,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.02195966666666667</v>
+        <v>0.044456</v>
       </c>
       <c r="H14">
-        <v>0.06587899999999999</v>
+        <v>0.133368</v>
       </c>
       <c r="I14">
-        <v>0.001624331253806005</v>
+        <v>0.005584875860694431</v>
       </c>
       <c r="J14">
-        <v>0.002013426285275722</v>
+        <v>0.006997027281208326</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,42 +1302,42 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.099467</v>
+        <v>22.5115375</v>
       </c>
       <c r="N14">
-        <v>0.198934</v>
+        <v>45.023075</v>
       </c>
       <c r="O14">
-        <v>0.003691777064895761</v>
+        <v>0.9902215301099084</v>
       </c>
       <c r="P14">
-        <v>0.00300350577097694</v>
+        <v>0.9889845149485278</v>
       </c>
       <c r="Q14">
-        <v>0.002184262164333333</v>
+        <v>1.0007729111</v>
       </c>
       <c r="R14">
-        <v>0.013105572986</v>
+        <v>6.004637466599999</v>
       </c>
       <c r="S14">
-        <v>5.996668868594385E-06</v>
+        <v>0.005530264320250731</v>
       </c>
       <c r="T14">
-        <v>6.047337467262296E-06</v>
+        <v>0.006919951631787433</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1349,60 +1346,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.02195966666666667</v>
+        <v>0.044456</v>
       </c>
       <c r="H15">
-        <v>0.06587899999999999</v>
+        <v>0.133368</v>
       </c>
       <c r="I15">
-        <v>0.001624331253806005</v>
+        <v>0.005584875860694431</v>
       </c>
       <c r="J15">
-        <v>0.002013426285275722</v>
+        <v>0.006997027281208326</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>12.17014233333333</v>
+        <v>0.01510933333333333</v>
       </c>
       <c r="N15">
-        <v>36.510427</v>
+        <v>0.045328</v>
       </c>
       <c r="O15">
-        <v>0.4517020955967002</v>
+        <v>0.0006646186282155973</v>
       </c>
       <c r="P15">
-        <v>0.551234470705522</v>
+        <v>0.0009956825493058141</v>
       </c>
       <c r="Q15">
-        <v>0.2672522689258889</v>
+        <v>0.0006717005226666666</v>
       </c>
       <c r="R15">
-        <v>2.405270420333</v>
+        <v>0.006045304703999999</v>
       </c>
       <c r="S15">
-        <v>0.0007337138312873881</v>
+        <v>3.711812533289136E-06</v>
       </c>
       <c r="T15">
-        <v>0.001109869972668548</v>
+        <v>6.966817960915835E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1411,46 +1408,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.02195966666666667</v>
+        <v>0.044456</v>
       </c>
       <c r="H16">
-        <v>0.06587899999999999</v>
+        <v>0.133368</v>
       </c>
       <c r="I16">
-        <v>0.001624331253806005</v>
+        <v>0.005584875860694431</v>
       </c>
       <c r="J16">
-        <v>0.002013426285275722</v>
+        <v>0.006997027281208326</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1487683333333333</v>
+        <v>0.1654315</v>
       </c>
       <c r="N16">
-        <v>0.446305</v>
+        <v>0.330863</v>
       </c>
       <c r="O16">
-        <v>0.005521625473601973</v>
+        <v>0.007276883378506569</v>
       </c>
       <c r="P16">
-        <v>0.006738313426140646</v>
+        <v>0.007267792872197529</v>
       </c>
       <c r="Q16">
-        <v>0.003266903010555555</v>
+        <v>0.007354422764</v>
       </c>
       <c r="R16">
-        <v>0.02940212709499999</v>
+        <v>0.044126536584</v>
       </c>
       <c r="S16">
-        <v>8.96894882858307E-06</v>
+        <v>4.064049032170987E-05</v>
       </c>
       <c r="T16">
-        <v>1.356709737061789E-05</v>
+        <v>5.085294500093753E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,619 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.5235485</v>
+        <v>0.044456</v>
       </c>
       <c r="H17">
-        <v>3.047097</v>
+        <v>0.133368</v>
       </c>
       <c r="I17">
-        <v>0.1126951279727649</v>
+        <v>0.005584875860694431</v>
       </c>
       <c r="J17">
-        <v>0.09312687189521394</v>
+        <v>0.006997027281208326</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>14.4951535</v>
+        <v>0.04176133333333334</v>
       </c>
       <c r="N17">
-        <v>28.990307</v>
+        <v>0.125284</v>
       </c>
       <c r="O17">
-        <v>0.5379962725672185</v>
+        <v>0.001836967883369284</v>
       </c>
       <c r="P17">
-        <v>0.4376956899116953</v>
+        <v>0.002752009629968885</v>
       </c>
       <c r="Q17">
-        <v>22.08406937219475</v>
+        <v>0.001856541834666667</v>
       </c>
       <c r="R17">
-        <v>88.33627748877902</v>
+        <v>0.016708876512</v>
       </c>
       <c r="S17">
-        <v>0.06062955878583318</v>
+        <v>1.025923758870006E-05</v>
       </c>
       <c r="T17">
-        <v>0.04076123044349374</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1.5235485</v>
-      </c>
-      <c r="H18">
-        <v>3.047097</v>
-      </c>
-      <c r="I18">
-        <v>0.1126951279727649</v>
-      </c>
-      <c r="J18">
-        <v>0.09312687189521394</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.02932</v>
-      </c>
-      <c r="N18">
-        <v>0.08796</v>
-      </c>
-      <c r="O18">
-        <v>0.001088229297583557</v>
-      </c>
-      <c r="P18">
-        <v>0.001328020185665254</v>
-      </c>
-      <c r="Q18">
-        <v>0.04467044202000001</v>
-      </c>
-      <c r="R18">
-        <v>0.26802265212</v>
-      </c>
-      <c r="S18">
-        <v>0.000122638139954891</v>
-      </c>
-      <c r="T18">
-        <v>0.0001236743657047064</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.5235485</v>
-      </c>
-      <c r="H19">
-        <v>3.047097</v>
-      </c>
-      <c r="I19">
-        <v>0.1126951279727649</v>
-      </c>
-      <c r="J19">
-        <v>0.09312687189521394</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.099467</v>
-      </c>
-      <c r="N19">
-        <v>0.198934</v>
-      </c>
-      <c r="O19">
-        <v>0.003691777064895761</v>
-      </c>
-      <c r="P19">
-        <v>0.00300350577097694</v>
-      </c>
-      <c r="Q19">
-        <v>0.1515427986495</v>
-      </c>
-      <c r="R19">
-        <v>0.6061711945980001</v>
-      </c>
-      <c r="S19">
-        <v>0.000416045288775346</v>
-      </c>
-      <c r="T19">
-        <v>0.0002797070971703053</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1.5235485</v>
-      </c>
-      <c r="H20">
-        <v>3.047097</v>
-      </c>
-      <c r="I20">
-        <v>0.1126951279727649</v>
-      </c>
-      <c r="J20">
-        <v>0.09312687189521394</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>12.17014233333333</v>
-      </c>
-      <c r="N20">
-        <v>36.510427</v>
-      </c>
-      <c r="O20">
-        <v>0.4517020955967002</v>
-      </c>
-      <c r="P20">
-        <v>0.551234470705522</v>
-      </c>
-      <c r="Q20">
-        <v>18.5418020967365</v>
-      </c>
-      <c r="R20">
-        <v>111.250812580419</v>
-      </c>
-      <c r="S20">
-        <v>0.0509046254688362</v>
-      </c>
-      <c r="T20">
-        <v>0.05133474193761921</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.5235485</v>
-      </c>
-      <c r="H21">
-        <v>3.047097</v>
-      </c>
-      <c r="I21">
-        <v>0.1126951279727649</v>
-      </c>
-      <c r="J21">
-        <v>0.09312687189521394</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.1487683333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.446305</v>
-      </c>
-      <c r="O21">
-        <v>0.005521625473601973</v>
-      </c>
-      <c r="P21">
-        <v>0.006738313426140646</v>
-      </c>
-      <c r="Q21">
-        <v>0.2266557710975</v>
-      </c>
-      <c r="R21">
-        <v>1.359934626585</v>
-      </c>
-      <c r="S21">
-        <v>0.0006222602893652528</v>
-      </c>
-      <c r="T21">
-        <v>0.0006275180512260001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>2.563407</v>
-      </c>
-      <c r="H22">
-        <v>7.690220999999999</v>
-      </c>
-      <c r="I22">
-        <v>0.1896122636800084</v>
-      </c>
-      <c r="J22">
-        <v>0.2350323031767232</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>14.4951535</v>
-      </c>
-      <c r="N22">
-        <v>28.990307</v>
-      </c>
-      <c r="O22">
-        <v>0.5379962725672185</v>
-      </c>
-      <c r="P22">
-        <v>0.4376956899116953</v>
-      </c>
-      <c r="Q22">
-        <v>37.1569779479745</v>
-      </c>
-      <c r="R22">
-        <v>222.941867687847</v>
-      </c>
-      <c r="S22">
-        <v>0.1020106910928771</v>
-      </c>
-      <c r="T22">
-        <v>0.1028726260904706</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>2.563407</v>
-      </c>
-      <c r="H23">
-        <v>7.690220999999999</v>
-      </c>
-      <c r="I23">
-        <v>0.1896122636800084</v>
-      </c>
-      <c r="J23">
-        <v>0.2350323031767232</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M23">
-        <v>0.02932</v>
-      </c>
-      <c r="N23">
-        <v>0.08796</v>
-      </c>
-      <c r="O23">
-        <v>0.001088229297583557</v>
-      </c>
-      <c r="P23">
-        <v>0.001328020185665254</v>
-      </c>
-      <c r="Q23">
-        <v>0.07515909323999999</v>
-      </c>
-      <c r="R23">
-        <v>0.6764318391599999</v>
-      </c>
-      <c r="S23">
-        <v>0.0002063416205177238</v>
-      </c>
-      <c r="T23">
-        <v>0.0003121276429020843</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>2.563407</v>
-      </c>
-      <c r="H24">
-        <v>7.690220999999999</v>
-      </c>
-      <c r="I24">
-        <v>0.1896122636800084</v>
-      </c>
-      <c r="J24">
-        <v>0.2350323031767232</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.099467</v>
-      </c>
-      <c r="N24">
-        <v>0.198934</v>
-      </c>
-      <c r="O24">
-        <v>0.003691777064895761</v>
-      </c>
-      <c r="P24">
-        <v>0.00300350577097694</v>
-      </c>
-      <c r="Q24">
-        <v>0.254974404069</v>
-      </c>
-      <c r="R24">
-        <v>1.529846424414</v>
-      </c>
-      <c r="S24">
-        <v>0.0007000062062768223</v>
-      </c>
-      <c r="T24">
-        <v>0.0007059208789572902</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2.563407</v>
-      </c>
-      <c r="H25">
-        <v>7.690220999999999</v>
-      </c>
-      <c r="I25">
-        <v>0.1896122636800084</v>
-      </c>
-      <c r="J25">
-        <v>0.2350323031767232</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>12.17014233333333</v>
-      </c>
-      <c r="N25">
-        <v>36.510427</v>
-      </c>
-      <c r="O25">
-        <v>0.4517020955967002</v>
-      </c>
-      <c r="P25">
-        <v>0.551234470705522</v>
-      </c>
-      <c r="Q25">
-        <v>31.197028048263</v>
-      </c>
-      <c r="R25">
-        <v>280.773252434367</v>
-      </c>
-      <c r="S25">
-        <v>0.08564825685509386</v>
-      </c>
-      <c r="T25">
-        <v>0.1295579072403208</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>2.563407</v>
-      </c>
-      <c r="H26">
-        <v>7.690220999999999</v>
-      </c>
-      <c r="I26">
-        <v>0.1896122636800084</v>
-      </c>
-      <c r="J26">
-        <v>0.2350323031767232</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.1487683333333333</v>
-      </c>
-      <c r="N26">
-        <v>0.446305</v>
-      </c>
-      <c r="O26">
-        <v>0.005521625473601973</v>
-      </c>
-      <c r="P26">
-        <v>0.006738313426140646</v>
-      </c>
-      <c r="Q26">
-        <v>0.3813537870449999</v>
-      </c>
-      <c r="R26">
-        <v>3.432184083404999</v>
-      </c>
-      <c r="S26">
-        <v>0.001046967905242868</v>
-      </c>
-      <c r="T26">
-        <v>0.001583721324072473</v>
+        <v>1.925588645904032E-05</v>
       </c>
     </row>
   </sheetData>
